--- a/examples/example-editor-works.xlsx
+++ b/examples/example-editor-works.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dutcmc\dutcmc-flask\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD38AAF-5051-47C8-994E-8C9109E1861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E0E86E-4AE7-4030-A936-382902647CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>稿件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,26 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试稿件3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试稿件4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稿酬结余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在只有作者时，需要在编辑列表中填写稿酬结余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在只有编辑时，需要在作者列表中填写稿酬结余</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +429,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -418,6 +438,7 @@
     <col min="2" max="2" width="14.1328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.86328125" style="1" customWidth="1"/>
     <col min="4" max="5" width="32.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -472,6 +493,46 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44671</v>
+      </c>
+      <c r="C4" s="1">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44674</v>
+      </c>
+      <c r="C5" s="1">
+        <v>600</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
